--- a/SFT_analysis_template.xlsx
+++ b/SFT_analysis_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gstei\Documents\GitHub\dissertation-steiger-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34C83B0-427A-47E1-8BFC-D326C843B743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE466A5-DDC2-4D31-B1E7-6CBF5C9B9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAB7BC98-5F10-4197-8C08-11BCA72DB64E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>shape</t>
   </si>
@@ -74,25 +74,19 @@
     <t>mounding</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>single</t>
   </si>
   <si>
-    <t>bilateral</t>
-  </si>
-  <si>
     <t>absent</t>
   </si>
   <si>
     <t>marked</t>
+  </si>
+  <si>
+    <t>I/</t>
   </si>
 </sst>
 </file>
@@ -447,15 +441,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7CB06E-8E6C-4EB5-AFC5-2AB27EB2CCBD}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -492,43 +494,43 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SFT_analysis_template.xlsx
+++ b/SFT_analysis_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gstei\Documents\GitHub\dissertation-steiger-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE466A5-DDC2-4D31-B1E7-6CBF5C9B9C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C8C877-AED7-469F-A14F-8F0A6A707AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAB7BC98-5F10-4197-8C08-11BCA72DB64E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>shape</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>I/</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,8 +502,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -506,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
